--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2165581.175506404</v>
+        <v>-2166394.622718292</v>
       </c>
     </row>
     <row r="7">
@@ -1376,13 +1376,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>321.0125464443796</v>
       </c>
       <c r="G11" t="n">
-        <v>322.4070376922378</v>
+        <v>23.29299687374635</v>
       </c>
       <c r="H11" t="n">
         <v>234.9781829577618</v>
@@ -1424,16 +1424,16 @@
         <v>130.7597296842795</v>
       </c>
       <c r="U11" t="n">
-        <v>163.296248452629</v>
+        <v>163.2962484526289</v>
       </c>
       <c r="V11" t="n">
         <v>244.6123490244663</v>
       </c>
       <c r="W11" t="n">
-        <v>269.9124485024232</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>53.82678747986705</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>300.6093045313685</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945722</v>
       </c>
       <c r="S12" t="n">
         <v>145.9169861849574</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25.67725859372662</v>
+        <v>92.72268265898421</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92267750438471</v>
+        <v>78.92267750438469</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>62.54404190196308</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>61.95871608592886</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>77.99174215033075</v>
+        <v>20.360730258557</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366589</v>
+        <v>66.63306124366586</v>
       </c>
       <c r="I13" t="n">
-        <v>46.49600542227655</v>
+        <v>46.49600542227653</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.16276991271697</v>
+        <v>48.16276991271694</v>
       </c>
       <c r="S13" t="n">
         <v>118.363767619385</v>
       </c>
       <c r="T13" t="n">
-        <v>140.8174128706116</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>195.3080224141332</v>
@@ -1594,7 +1594,7 @@
         <v>139.9428071250262</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>130.8176748810939</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.105971784287</v>
+        <v>301.1059717842871</v>
       </c>
       <c r="C14" t="n">
-        <v>289.1172887419688</v>
+        <v>244.2565731075361</v>
       </c>
       <c r="D14" t="n">
-        <v>280.0985927864967</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E14" t="n">
-        <v>301.8407303564023</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>321.0125464443796</v>
       </c>
       <c r="G14" t="n">
-        <v>322.4070376922377</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>234.9781829577616</v>
+        <v>234.9781829577618</v>
       </c>
       <c r="I14" t="n">
-        <v>61.32070768241296</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.08218037545153</v>
+        <v>84.08218037545163</v>
       </c>
       <c r="T14" t="n">
-        <v>130.7597296842794</v>
+        <v>130.7597296842795</v>
       </c>
       <c r="U14" t="n">
-        <v>163.2962484526288</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>17.10911789280199</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>269.912448502423</v>
+        <v>269.9124485024232</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>289.2127067351698</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>300.6093045313685</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>127.1529440554385</v>
       </c>
       <c r="H15" t="n">
-        <v>96.15438866313546</v>
+        <v>96.15438866313485</v>
       </c>
       <c r="I15" t="n">
-        <v>57.77334520310321</v>
+        <v>57.77334520310382</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.81826606917004</v>
+        <v>6.018309440214595</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438459</v>
+        <v>78.92267750438469</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>61.49179175774243</v>
+        <v>61.49179175774253</v>
       </c>
       <c r="F16" t="n">
-        <v>61.95871608592874</v>
+        <v>61.95871608592884</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033064</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>66.63306124366588</v>
       </c>
       <c r="I16" t="n">
-        <v>46.49600542227644</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.16276991271685</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.3637676193849</v>
+        <v>118.363767619385</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>140.8174128706116</v>
       </c>
       <c r="U16" t="n">
-        <v>195.3080224141331</v>
+        <v>195.3080224141332</v>
       </c>
       <c r="V16" t="n">
-        <v>169.1308190586097</v>
+        <v>169.1308190586098</v>
       </c>
       <c r="W16" t="n">
-        <v>194.2977051292229</v>
+        <v>194.2977051292231</v>
       </c>
       <c r="X16" t="n">
-        <v>139.9428071250261</v>
+        <v>139.9428071250262</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.8176748810938</v>
+        <v>130.8176748810939</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864011083</v>
+        <v>7.152388864011073</v>
       </c>
       <c r="T17" t="n">
         <v>53.82993817283892</v>
@@ -1938,7 +1938,7 @@
         <v>127.1529440554385</v>
       </c>
       <c r="H18" t="n">
-        <v>96.15438866313546</v>
+        <v>96.15438866313485</v>
       </c>
       <c r="I18" t="n">
         <v>57.77334520310321</v>
@@ -1974,7 +1974,7 @@
         <v>145.9169861849574</v>
       </c>
       <c r="T18" t="n">
-        <v>185.6363186866066</v>
+        <v>185.6363186866071</v>
       </c>
       <c r="U18" t="n">
         <v>216.2908792854683</v>
@@ -2017,10 +2017,10 @@
         <v>1.061950638890176</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>155.6301935822177</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.3317591644397548</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>92.20102754716925</v>
       </c>
       <c r="W19" t="n">
-        <v>273.32986636444</v>
+        <v>117.3679136177825</v>
       </c>
       <c r="X19" t="n">
         <v>63.01301561358562</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1761802728466</v>
+        <v>224.1761802728465</v>
       </c>
       <c r="C20" t="n">
         <v>212.1874972305283</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1688012750563</v>
+        <v>203.1688012750562</v>
       </c>
       <c r="E20" t="n">
         <v>224.9109388449618</v>
       </c>
       <c r="F20" t="n">
-        <v>244.082754932939</v>
+        <v>244.0827549329389</v>
       </c>
       <c r="G20" t="n">
         <v>245.4772461807972</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0483914463212</v>
+        <v>158.0483914463211</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.152388864011083</v>
+        <v>7.152388864011016</v>
       </c>
       <c r="T20" t="n">
-        <v>53.82993817283892</v>
+        <v>53.82993817283887</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36645694118837</v>
+        <v>86.36645694118832</v>
       </c>
       <c r="V20" t="n">
-        <v>167.6825575130257</v>
+        <v>167.6825575130256</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9826569909826</v>
+        <v>192.9826569909825</v>
       </c>
       <c r="X20" t="n">
         <v>212.2829152237292</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.679513019928</v>
+        <v>223.6795130199279</v>
       </c>
     </row>
     <row r="21">
@@ -2217,7 +2217,7 @@
         <v>216.2908792854683</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261498</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79289114754366</v>
+        <v>15.7928911475436</v>
       </c>
       <c r="C22" t="n">
-        <v>1.992885992944139</v>
+        <v>1.992885992944082</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.061950638890176</v>
+        <v>1.061950638890119</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.473028650363762</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.43397610794441</v>
+        <v>41.43397610794435</v>
       </c>
       <c r="T22" t="n">
-        <v>63.88762135917109</v>
+        <v>63.88762135917103</v>
       </c>
       <c r="U22" t="n">
-        <v>274.3401836493501</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V22" t="n">
-        <v>92.20102754716925</v>
+        <v>92.20102754716919</v>
       </c>
       <c r="W22" t="n">
-        <v>117.3679136177825</v>
+        <v>117.3679136177824</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01301561358562</v>
+        <v>63.01301561358557</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.88788336965331</v>
+        <v>53.88788336965325</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.1761802728466</v>
+        <v>224.1761802728465</v>
       </c>
       <c r="C23" t="n">
         <v>212.1874972305283</v>
       </c>
       <c r="D23" t="n">
-        <v>203.1688012750563</v>
+        <v>203.1688012750562</v>
       </c>
       <c r="E23" t="n">
         <v>224.9109388449618</v>
       </c>
       <c r="F23" t="n">
-        <v>244.082754932939</v>
+        <v>244.0827549329389</v>
       </c>
       <c r="G23" t="n">
         <v>245.4772461807972</v>
       </c>
       <c r="H23" t="n">
-        <v>158.0483914463212</v>
+        <v>158.0483914463211</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864011073</v>
+        <v>7.152388864011016</v>
       </c>
       <c r="T23" t="n">
-        <v>53.82993817283892</v>
+        <v>53.82993817283887</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36645694118837</v>
+        <v>86.36645694118832</v>
       </c>
       <c r="V23" t="n">
-        <v>167.6825575130257</v>
+        <v>167.6825575130256</v>
       </c>
       <c r="W23" t="n">
-        <v>192.9826569909826</v>
+        <v>192.9826569909825</v>
       </c>
       <c r="X23" t="n">
         <v>212.2829152237292</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.679513019928</v>
+        <v>223.6795130199279</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.79289114754366</v>
+        <v>15.7928911475436</v>
       </c>
       <c r="C25" t="n">
-        <v>1.992885992944139</v>
+        <v>1.992885992944082</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>138.0471092422561</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.061950638890176</v>
+        <v>1.061950638890119</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.91484350440139</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.43397610794441</v>
+        <v>41.43397610794435</v>
       </c>
       <c r="T25" t="n">
-        <v>63.88762135917109</v>
+        <v>63.88762135917103</v>
       </c>
       <c r="U25" t="n">
         <v>118.3782309026926</v>
       </c>
       <c r="V25" t="n">
-        <v>92.20102754716925</v>
+        <v>248.1629802938273</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3679136177825</v>
+        <v>117.3679136177824</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01301561358562</v>
+        <v>63.01301561358557</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.88788336965331</v>
+        <v>53.88788336965325</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.6039528668827</v>
+        <v>287.6039528668828</v>
       </c>
       <c r="C26" t="n">
-        <v>275.6152698245644</v>
+        <v>275.6152698245645</v>
       </c>
       <c r="D26" t="n">
-        <v>266.5965738690924</v>
+        <v>266.5965738690925</v>
       </c>
       <c r="E26" t="n">
-        <v>288.3387114389979</v>
+        <v>288.338711438998</v>
       </c>
       <c r="F26" t="n">
         <v>307.5105275269751</v>
       </c>
       <c r="G26" t="n">
-        <v>308.9050187748333</v>
+        <v>308.9050187748334</v>
       </c>
       <c r="H26" t="n">
-        <v>221.4761640403573</v>
+        <v>221.4761640403574</v>
       </c>
       <c r="I26" t="n">
-        <v>47.81868876500856</v>
+        <v>47.81868876500866</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804713</v>
+        <v>70.58016145804723</v>
       </c>
       <c r="T26" t="n">
-        <v>117.257710766875</v>
+        <v>117.2577107668751</v>
       </c>
       <c r="U26" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352245</v>
       </c>
       <c r="V26" t="n">
-        <v>231.1103301070618</v>
+        <v>231.1103301070619</v>
       </c>
       <c r="W26" t="n">
         <v>256.4104295850187</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.22066374157971</v>
+        <v>79.22066374157981</v>
       </c>
       <c r="C28" t="n">
-        <v>65.4206585869802</v>
+        <v>65.4206585869803</v>
       </c>
       <c r="D28" t="n">
-        <v>49.04202298455859</v>
+        <v>49.04202298455868</v>
       </c>
       <c r="E28" t="n">
-        <v>47.98977284033803</v>
+        <v>47.98977284033813</v>
       </c>
       <c r="F28" t="n">
-        <v>48.45669716852434</v>
+        <v>48.45669716852444</v>
       </c>
       <c r="G28" t="n">
-        <v>64.48972323292624</v>
+        <v>64.48972323292634</v>
       </c>
       <c r="H28" t="n">
-        <v>53.13104232626138</v>
+        <v>53.13104232626146</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99398650487204</v>
+        <v>32.99398650487213</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66075099531245</v>
+        <v>34.66075099531254</v>
       </c>
       <c r="S28" t="n">
-        <v>104.8617487019805</v>
+        <v>104.8617487019806</v>
       </c>
       <c r="T28" t="n">
-        <v>127.3153939532071</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U28" t="n">
         <v>181.8060034967287</v>
       </c>
       <c r="V28" t="n">
-        <v>155.6288001412053</v>
+        <v>155.6288001412054</v>
       </c>
       <c r="W28" t="n">
-        <v>180.7956862118186</v>
+        <v>180.7956862118187</v>
       </c>
       <c r="X28" t="n">
-        <v>126.4407882076217</v>
+        <v>126.4407882076218</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.3156559636894</v>
+        <v>117.3156559636895</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I29" t="n">
-        <v>47.81868876500857</v>
+        <v>47.81868876500859</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58016145804714</v>
+        <v>70.58016145804716</v>
       </c>
       <c r="T29" t="n">
         <v>117.257710766875</v>
       </c>
       <c r="U29" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352245</v>
       </c>
       <c r="V29" t="n">
         <v>231.1103301070618</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.22066374157973</v>
+        <v>79.22066374157974</v>
       </c>
       <c r="C31" t="n">
-        <v>65.42065858698021</v>
+        <v>65.42065858698022</v>
       </c>
       <c r="D31" t="n">
-        <v>49.0420229845586</v>
+        <v>49.04202298455861</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98977284033805</v>
+        <v>47.98977284033806</v>
       </c>
       <c r="F31" t="n">
-        <v>48.45669716852436</v>
+        <v>48.45669716852437</v>
       </c>
       <c r="G31" t="n">
-        <v>64.48972323292625</v>
+        <v>64.48972323292627</v>
       </c>
       <c r="H31" t="n">
-        <v>53.13104232626139</v>
+        <v>53.13104232626141</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99398650487205</v>
+        <v>32.99398650487207</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66075099531247</v>
+        <v>34.66075099531248</v>
       </c>
       <c r="S31" t="n">
         <v>104.8617487019805</v>
       </c>
       <c r="T31" t="n">
-        <v>127.3153939532071</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U31" t="n">
         <v>181.8060034967287</v>
@@ -3439,7 +3439,7 @@
         <v>14.40211851600875</v>
       </c>
       <c r="H37" t="n">
-        <v>4.645430471070353</v>
+        <v>3.043437609343885</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.91484350440139</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.77414398506298</v>
+        <v>74.29098035119083</v>
       </c>
       <c r="T37" t="n">
         <v>77.22778923628965</v>
@@ -3503,19 +3503,19 @@
         <v>237.5163481499652</v>
       </c>
       <c r="C38" t="n">
-        <v>225.527665107647</v>
+        <v>225.5276651076469</v>
       </c>
       <c r="D38" t="n">
         <v>216.5089691521749</v>
       </c>
       <c r="E38" t="n">
-        <v>238.2511067220805</v>
+        <v>238.2511067220804</v>
       </c>
       <c r="F38" t="n">
         <v>257.4229228100576</v>
       </c>
       <c r="G38" t="n">
-        <v>258.8174140579159</v>
+        <v>258.8174140579158</v>
       </c>
       <c r="H38" t="n">
         <v>171.3885593234398</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.4925567411297</v>
+        <v>20.49255674112966</v>
       </c>
       <c r="T38" t="n">
-        <v>67.17010604995755</v>
+        <v>67.1701060499575</v>
       </c>
       <c r="U38" t="n">
-        <v>99.70662481830701</v>
+        <v>99.70662481830695</v>
       </c>
       <c r="V38" t="n">
         <v>181.0227253901443</v>
@@ -3566,7 +3566,7 @@
         <v>206.3228248681012</v>
       </c>
       <c r="X38" t="n">
-        <v>225.6230831008479</v>
+        <v>225.6230831008478</v>
       </c>
       <c r="Y38" t="n">
         <v>237.0196808970466</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.13305902466229</v>
+        <v>29.13305902466223</v>
       </c>
       <c r="C40" t="n">
-        <v>15.33305387006277</v>
+        <v>15.33305387006271</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>19.51683636612783</v>
       </c>
       <c r="G40" t="n">
-        <v>14.40211851600881</v>
+        <v>14.40211851600875</v>
       </c>
       <c r="H40" t="n">
-        <v>3.043437609343941</v>
+        <v>3.043437609343885</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.77414398506304</v>
+        <v>54.77414398506298</v>
       </c>
       <c r="T40" t="n">
-        <v>77.22778923628971</v>
+        <v>77.22778923628965</v>
       </c>
       <c r="U40" t="n">
         <v>131.7183987798112</v>
       </c>
       <c r="V40" t="n">
-        <v>105.5411954242879</v>
+        <v>105.5411954242878</v>
       </c>
       <c r="W40" t="n">
-        <v>150.2249178610283</v>
+        <v>130.7080814949011</v>
       </c>
       <c r="X40" t="n">
-        <v>76.35318349070425</v>
+        <v>76.3531834907042</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.22805124677194</v>
+        <v>67.22805124677188</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3740,22 @@
         <v>237.5163481499651</v>
       </c>
       <c r="C41" t="n">
-        <v>225.5276651076468</v>
+        <v>225.5276651076469</v>
       </c>
       <c r="D41" t="n">
         <v>216.5089691521748</v>
       </c>
       <c r="E41" t="n">
-        <v>238.2511067220803</v>
+        <v>238.2511067220804</v>
       </c>
       <c r="F41" t="n">
-        <v>257.4229228100575</v>
+        <v>257.4229228100576</v>
       </c>
       <c r="G41" t="n">
-        <v>258.8174140579157</v>
+        <v>258.8174140579158</v>
       </c>
       <c r="H41" t="n">
-        <v>171.3885593234397</v>
+        <v>171.3885593234398</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.49255674112956</v>
+        <v>20.49255674112962</v>
       </c>
       <c r="T41" t="n">
-        <v>67.17010604995741</v>
+        <v>67.17010604995747</v>
       </c>
       <c r="U41" t="n">
-        <v>99.70662481830686</v>
+        <v>99.70662481830692</v>
       </c>
       <c r="V41" t="n">
         <v>181.0227253901442</v>
       </c>
       <c r="W41" t="n">
-        <v>206.3228248681011</v>
+        <v>206.3228248681012</v>
       </c>
       <c r="X41" t="n">
-        <v>225.6230831008477</v>
+        <v>225.6230831008478</v>
       </c>
       <c r="Y41" t="n">
         <v>237.0196808970465</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.13305902466215</v>
+        <v>29.1330590246622</v>
       </c>
       <c r="C43" t="n">
-        <v>15.33305387006263</v>
+        <v>15.33305387006268</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>19.51683636612869</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.40211851600866</v>
+        <v>14.40211851600872</v>
       </c>
       <c r="H43" t="n">
-        <v>3.043437609343799</v>
+        <v>3.043437609343856</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.7741439850629</v>
+        <v>74.29098035119105</v>
       </c>
       <c r="T43" t="n">
-        <v>77.22778923628957</v>
+        <v>77.22778923628962</v>
       </c>
       <c r="U43" t="n">
         <v>131.7183987798111</v>
       </c>
       <c r="V43" t="n">
-        <v>105.5411954242877</v>
+        <v>105.5411954242878</v>
       </c>
       <c r="W43" t="n">
-        <v>130.708081494901</v>
+        <v>130.7080814949011</v>
       </c>
       <c r="X43" t="n">
-        <v>76.35318349070411</v>
+        <v>76.35318349070417</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.2280512467718</v>
+        <v>67.22805124677186</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.49255674112966</v>
+        <v>20.49255674112968</v>
       </c>
       <c r="T44" t="n">
-        <v>67.1701060499575</v>
+        <v>67.17010604995752</v>
       </c>
       <c r="U44" t="n">
-        <v>99.70662481830695</v>
+        <v>99.70662481830698</v>
       </c>
       <c r="V44" t="n">
         <v>181.0227253901443</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.13305902466223</v>
+        <v>48.6498953907897</v>
       </c>
       <c r="C46" t="n">
-        <v>15.33305387006271</v>
+        <v>15.33305387006274</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.40211851600875</v>
+        <v>14.40211851600878</v>
       </c>
       <c r="H46" t="n">
-        <v>3.043437609343885</v>
+        <v>3.043437609343913</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4177,16 +4177,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.91484350440139</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.37613684678946</v>
+        <v>54.77414398506301</v>
       </c>
       <c r="T46" t="n">
-        <v>77.22778923628965</v>
+        <v>77.22778923628968</v>
       </c>
       <c r="U46" t="n">
         <v>131.7183987798112</v>
@@ -4198,10 +4198,10 @@
         <v>130.7080814949011</v>
       </c>
       <c r="X46" t="n">
-        <v>76.3531834907042</v>
+        <v>76.35318349070423</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.22805124677188</v>
+        <v>67.22805124677191</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>967.6224669872985</v>
+        <v>1294.631796262339</v>
       </c>
       <c r="C11" t="n">
-        <v>675.5848015913703</v>
+        <v>1002.594130866411</v>
       </c>
       <c r="D11" t="n">
-        <v>675.5848015913703</v>
+        <v>1002.594130866411</v>
       </c>
       <c r="E11" t="n">
-        <v>675.5848015913703</v>
+        <v>697.7045042437824</v>
       </c>
       <c r="F11" t="n">
-        <v>675.5848015913703</v>
+        <v>373.4494068252172</v>
       </c>
       <c r="G11" t="n">
-        <v>349.9211271547665</v>
+        <v>349.9211271547664</v>
       </c>
       <c r="H11" t="n">
         <v>112.5694271974314</v>
       </c>
       <c r="I11" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J11" t="n">
-        <v>50.62931842731714</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K11" t="n">
-        <v>358.6187566067425</v>
+        <v>287.2391769275712</v>
       </c>
       <c r="L11" t="n">
-        <v>790.6768958565433</v>
+        <v>719.2973161773721</v>
       </c>
       <c r="M11" t="n">
-        <v>1277.574482823758</v>
+        <v>1206.194903144587</v>
       </c>
       <c r="N11" t="n">
-        <v>1751.079753389619</v>
+        <v>1679.700173710448</v>
       </c>
       <c r="O11" t="n">
-        <v>2145.954364034585</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P11" t="n">
-        <v>2450.813248612012</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.465921365857</v>
@@ -5075,16 +5075,16 @@
         <v>2149.508185494786</v>
       </c>
       <c r="V11" t="n">
-        <v>1902.425004661992</v>
+        <v>1902.425004661991</v>
       </c>
       <c r="W11" t="n">
-        <v>1629.786167790857</v>
+        <v>1902.425004661991</v>
       </c>
       <c r="X11" t="n">
-        <v>1575.415675386951</v>
+        <v>1902.425004661991</v>
       </c>
       <c r="Y11" t="n">
-        <v>1271.769913234053</v>
+        <v>1598.779242509094</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.8133128779672</v>
+        <v>916.813312877967</v>
       </c>
       <c r="C12" t="n">
-        <v>755.109640118922</v>
+        <v>755.1096401189217</v>
       </c>
       <c r="D12" t="n">
-        <v>616.2710031091342</v>
+        <v>616.2710031091337</v>
       </c>
       <c r="E12" t="n">
-        <v>469.2429931660054</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5491951158797</v>
+        <v>334.5491951158793</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1118778881641</v>
+        <v>206.1118778881637</v>
       </c>
       <c r="H12" t="n">
         <v>108.986232773886</v>
       </c>
       <c r="I12" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J12" t="n">
         <v>137.8463925088447</v>
@@ -5127,16 +5127,16 @@
         <v>841.2082694571443</v>
       </c>
       <c r="M12" t="n">
-        <v>935.0807557888481</v>
+        <v>1398.552487108882</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.571119459616</v>
+        <v>1714.772304204091</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.672185824252</v>
+        <v>2174.873370568727</v>
       </c>
       <c r="P12" t="n">
-        <v>2337.264736621381</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q12" t="n">
         <v>2531.465921365857</v>
@@ -5145,19 +5145,19 @@
         <v>2489.760525245193</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T12" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V12" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X12" t="n">
         <v>1268.754082009649</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>385.9850784339705</v>
+        <v>328.3631733069604</v>
       </c>
       <c r="C13" t="n">
-        <v>306.2652021669153</v>
+        <v>248.6432970399052</v>
       </c>
       <c r="D13" t="n">
-        <v>306.2652021669153</v>
+        <v>185.4674971389327</v>
       </c>
       <c r="E13" t="n">
-        <v>306.2652021669153</v>
+        <v>185.4674971389327</v>
       </c>
       <c r="F13" t="n">
-        <v>243.6806404639568</v>
+        <v>185.4674971389327</v>
       </c>
       <c r="G13" t="n">
         <v>164.9011029383701</v>
       </c>
       <c r="H13" t="n">
-        <v>97.59498047002074</v>
+        <v>97.59498047002076</v>
       </c>
       <c r="I13" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J13" t="n">
-        <v>96.79005415413172</v>
+        <v>96.79005415413167</v>
       </c>
       <c r="K13" t="n">
         <v>246.2990519958641</v>
@@ -5206,10 +5206,10 @@
         <v>470.5847128405359</v>
       </c>
       <c r="M13" t="n">
-        <v>714.1904553447745</v>
+        <v>714.190455344774</v>
       </c>
       <c r="N13" t="n">
-        <v>957.3332466068812</v>
+        <v>957.3332466068807</v>
       </c>
       <c r="O13" t="n">
         <v>1177.722352077497</v>
@@ -5227,22 +5227,22 @@
         <v>1259.89823519289</v>
       </c>
       <c r="T13" t="n">
-        <v>1117.658424212475</v>
+        <v>1259.89823519289</v>
       </c>
       <c r="U13" t="n">
-        <v>920.3775934911276</v>
+        <v>1062.617404471543</v>
       </c>
       <c r="V13" t="n">
-        <v>749.5383823208147</v>
+        <v>891.7781933012304</v>
       </c>
       <c r="W13" t="n">
-        <v>553.2780741094782</v>
+        <v>695.517885089894</v>
       </c>
       <c r="X13" t="n">
-        <v>411.9217032761186</v>
+        <v>554.1615142565342</v>
       </c>
       <c r="Y13" t="n">
-        <v>411.9217032761186</v>
+        <v>422.0224487200758</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1555.439965111439</v>
+        <v>1141.887798524463</v>
       </c>
       <c r="C14" t="n">
-        <v>1263.40229971551</v>
+        <v>895.1639873047296</v>
       </c>
       <c r="D14" t="n">
-        <v>980.4744282139986</v>
+        <v>612.2361158032174</v>
       </c>
       <c r="E14" t="n">
-        <v>675.5848015913698</v>
+        <v>612.2361158032174</v>
       </c>
       <c r="F14" t="n">
-        <v>675.5848015913698</v>
+        <v>287.9810183846523</v>
       </c>
       <c r="G14" t="n">
-        <v>349.9211271547663</v>
+        <v>287.9810183846523</v>
       </c>
       <c r="H14" t="n">
-        <v>112.5694271974312</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I14" t="n">
         <v>50.62931842731713</v>
       </c>
       <c r="J14" t="n">
-        <v>167.8985774144699</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K14" t="n">
-        <v>287.2391769275712</v>
+        <v>358.6187566067425</v>
       </c>
       <c r="L14" t="n">
         <v>719.2973161773721</v>
@@ -5303,25 +5303,25 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S14" t="n">
-        <v>2446.534426037117</v>
+        <v>2446.534426037118</v>
       </c>
       <c r="T14" t="n">
         <v>2314.453891002492</v>
       </c>
       <c r="U14" t="n">
-        <v>2149.508185494786</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="V14" t="n">
-        <v>2132.226248229328</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="W14" t="n">
-        <v>1859.587411358193</v>
+        <v>2041.815054131358</v>
       </c>
       <c r="X14" t="n">
-        <v>1859.587411358193</v>
+        <v>1749.681006924115</v>
       </c>
       <c r="Y14" t="n">
-        <v>1859.587411358193</v>
+        <v>1446.035244771218</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>206.1118778881643</v>
       </c>
       <c r="H15" t="n">
-        <v>108.986232773886</v>
+        <v>108.9862327738867</v>
       </c>
       <c r="I15" t="n">
         <v>50.62931842731713</v>
       </c>
       <c r="J15" t="n">
-        <v>50.62931842731713</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="K15" t="n">
-        <v>50.62931842731713</v>
+        <v>413.4208828411996</v>
       </c>
       <c r="L15" t="n">
-        <v>478.4167050432619</v>
+        <v>841.2082694571443</v>
       </c>
       <c r="M15" t="n">
-        <v>1035.760922695</v>
+        <v>1129.281940533323</v>
       </c>
       <c r="N15" t="n">
-        <v>1621.251286365768</v>
+        <v>1714.772304204091</v>
       </c>
       <c r="O15" t="n">
-        <v>2081.352352730404</v>
+        <v>2174.873370568727</v>
       </c>
       <c r="P15" t="n">
-        <v>2437.944903527533</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q15" t="n">
         <v>2531.465921365857</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>380.7918769330371</v>
+        <v>322.3527998330969</v>
       </c>
       <c r="C16" t="n">
-        <v>301.0720006659821</v>
+        <v>242.6329235660416</v>
       </c>
       <c r="D16" t="n">
-        <v>301.0720006659821</v>
+        <v>242.6329235660416</v>
       </c>
       <c r="E16" t="n">
-        <v>238.9590796985655</v>
+        <v>180.5200025986249</v>
       </c>
       <c r="F16" t="n">
-        <v>176.3745179956072</v>
+        <v>117.9354408956665</v>
       </c>
       <c r="G16" t="n">
-        <v>97.59498047002062</v>
+        <v>117.9354408956665</v>
       </c>
       <c r="H16" t="n">
-        <v>97.59498047002062</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I16" t="n">
         <v>50.62931842731713</v>
@@ -5437,49 +5437,49 @@
         <v>96.79005415413178</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2990519958643</v>
+        <v>246.2990519958642</v>
       </c>
       <c r="L16" t="n">
-        <v>470.5847128405362</v>
+        <v>470.584712840536</v>
       </c>
       <c r="M16" t="n">
-        <v>714.1904553447748</v>
+        <v>714.1904553447746</v>
       </c>
       <c r="N16" t="n">
-        <v>957.3332466068816</v>
+        <v>957.3332466068813</v>
       </c>
       <c r="O16" t="n">
-        <v>1177.722352077498</v>
+        <v>1177.722352077497</v>
       </c>
       <c r="P16" t="n">
-        <v>1357.735393016882</v>
+        <v>1357.735393016881</v>
       </c>
       <c r="Q16" t="n">
-        <v>1428.106858962691</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="R16" t="n">
-        <v>1379.457596424593</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="S16" t="n">
-        <v>1259.898235192891</v>
+        <v>1308.547497730988</v>
       </c>
       <c r="T16" t="n">
-        <v>1259.898235192891</v>
+        <v>1166.307686750572</v>
       </c>
       <c r="U16" t="n">
-        <v>1062.617404471545</v>
+        <v>969.0268560292258</v>
       </c>
       <c r="V16" t="n">
-        <v>891.7781933012319</v>
+        <v>798.1876448589128</v>
       </c>
       <c r="W16" t="n">
-        <v>695.5178850898956</v>
+        <v>601.9273366475763</v>
       </c>
       <c r="X16" t="n">
-        <v>554.161514256536</v>
+        <v>460.5709658142166</v>
       </c>
       <c r="Y16" t="n">
-        <v>422.0224487200776</v>
+        <v>328.4319002777581</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1137.182987801131</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9619764121851</v>
+        <v>931.9619764121855</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7792099021226</v>
+        <v>704.7792099021231</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2309725961236</v>
+        <v>458.230972596124</v>
       </c>
       <c r="G17" t="n">
         <v>210.274158272086</v>
@@ -5522,10 +5522,10 @@
         <v>907.9461548436961</v>
       </c>
       <c r="M17" t="n">
-        <v>1206.194903144587</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N17" t="n">
-        <v>1679.700173710448</v>
+        <v>1868.349012376772</v>
       </c>
       <c r="O17" t="n">
         <v>2074.574784355413</v>
@@ -5540,10 +5540,10 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.241286149684</v>
+        <v>2524.241286149685</v>
       </c>
       <c r="T17" t="n">
-        <v>2469.867611227624</v>
+        <v>2469.867611227625</v>
       </c>
       <c r="U17" t="n">
         <v>2382.628765832485</v>
@@ -5555,10 +5555,10 @@
         <v>2018.320468353689</v>
       </c>
       <c r="X17" t="n">
-        <v>1803.893281259012</v>
+        <v>1803.893281259013</v>
       </c>
       <c r="Y17" t="n">
-        <v>1577.954379218681</v>
+        <v>1577.954379218682</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>916.8133128779675</v>
+        <v>916.813312877967</v>
       </c>
       <c r="C18" t="n">
-        <v>755.1096401189222</v>
+        <v>755.1096401189217</v>
       </c>
       <c r="D18" t="n">
-        <v>616.2710031091343</v>
+        <v>616.2710031091337</v>
       </c>
       <c r="E18" t="n">
-        <v>469.2429931660055</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F18" t="n">
-        <v>334.5491951158799</v>
+        <v>334.5491951158793</v>
       </c>
       <c r="G18" t="n">
-        <v>206.1118778881643</v>
+        <v>206.1118778881637</v>
       </c>
       <c r="H18" t="n">
         <v>108.986232773886</v>
@@ -5595,22 +5595,22 @@
         <v>137.8463925088447</v>
       </c>
       <c r="K18" t="n">
-        <v>413.4208828411996</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="L18" t="n">
-        <v>841.2082694571443</v>
+        <v>565.6337791247895</v>
       </c>
       <c r="M18" t="n">
-        <v>1398.552487108882</v>
+        <v>1122.977996776528</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.571119459616</v>
+        <v>1708.468360447296</v>
       </c>
       <c r="O18" t="n">
-        <v>1980.672185824252</v>
+        <v>2168.569426811931</v>
       </c>
       <c r="P18" t="n">
-        <v>2337.264736621381</v>
+        <v>2525.161977609061</v>
       </c>
       <c r="Q18" t="n">
         <v>2531.465921365857</v>
@@ -5625,13 +5625,13 @@
         <v>2154.858197092098</v>
       </c>
       <c r="U18" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V18" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W18" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X18" t="n">
         <v>1268.754082009649</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.71501199482654</v>
+        <v>211.2523380015513</v>
       </c>
       <c r="C19" t="n">
-        <v>51.70199584033751</v>
+        <v>209.2393218470622</v>
       </c>
       <c r="D19" t="n">
-        <v>51.70199584033751</v>
+        <v>209.2393218470622</v>
       </c>
       <c r="E19" t="n">
-        <v>51.70199584033751</v>
+        <v>209.2393218470622</v>
       </c>
       <c r="F19" t="n">
-        <v>51.70199584033751</v>
+        <v>209.2393218470622</v>
       </c>
       <c r="G19" t="n">
-        <v>50.62931842731713</v>
+        <v>208.1666444340418</v>
       </c>
       <c r="H19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.96442869442799</v>
       </c>
       <c r="I19" t="n">
         <v>50.62931842731713</v>
@@ -5710,13 +5710,13 @@
         <v>463.8399175455564</v>
       </c>
       <c r="W19" t="n">
-        <v>187.7491434400615</v>
+        <v>345.2864694467862</v>
       </c>
       <c r="X19" t="n">
-        <v>124.0996327192679</v>
+        <v>281.6369587259927</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.66742729537569</v>
+        <v>227.2047533021004</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>1137.182987801131</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9619764121849</v>
+        <v>931.9619764121853</v>
       </c>
       <c r="E20" t="n">
-        <v>704.7792099021224</v>
+        <v>704.7792099021229</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2309725961234</v>
+        <v>458.230972596124</v>
       </c>
       <c r="G20" t="n">
         <v>210.274158272086</v>
       </c>
       <c r="H20" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I20" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J20" t="n">
-        <v>50.62931842731713</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K20" t="n">
-        <v>358.6187566067425</v>
+        <v>475.8880155938953</v>
       </c>
       <c r="L20" t="n">
-        <v>790.6768958565433</v>
+        <v>907.9461548436961</v>
       </c>
       <c r="M20" t="n">
-        <v>1277.574482823758</v>
+        <v>1358.227155577603</v>
       </c>
       <c r="N20" t="n">
-        <v>1751.079753389619</v>
+        <v>1831.732426143464</v>
       </c>
       <c r="O20" t="n">
-        <v>2145.954364034585</v>
+        <v>2226.607036788429</v>
       </c>
       <c r="P20" t="n">
-        <v>2450.813248612012</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q20" t="n">
         <v>2531.465921365857</v>
@@ -5777,10 +5777,10 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S20" t="n">
-        <v>2524.241286149684</v>
+        <v>2524.241286149685</v>
       </c>
       <c r="T20" t="n">
-        <v>2469.867611227624</v>
+        <v>2469.867611227625</v>
       </c>
       <c r="U20" t="n">
         <v>2382.628765832485</v>
@@ -5789,10 +5789,10 @@
         <v>2213.252445112257</v>
       </c>
       <c r="W20" t="n">
-        <v>2018.320468353688</v>
+        <v>2018.320468353689</v>
       </c>
       <c r="X20" t="n">
-        <v>1803.893281259012</v>
+        <v>1803.893281259013</v>
       </c>
       <c r="Y20" t="n">
         <v>1577.954379218681</v>
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779672</v>
       </c>
       <c r="C21" t="n">
-        <v>755.1096401189217</v>
+        <v>755.109640118922</v>
       </c>
       <c r="D21" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091342</v>
       </c>
       <c r="E21" t="n">
-        <v>469.2429931660049</v>
+        <v>469.2429931660054</v>
       </c>
       <c r="F21" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158797</v>
       </c>
       <c r="G21" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881641</v>
       </c>
       <c r="H21" t="n">
         <v>108.986232773886</v>
       </c>
       <c r="I21" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J21" t="n">
         <v>137.8463925088447</v>
@@ -5841,13 +5841,13 @@
         <v>1398.552487108882</v>
       </c>
       <c r="N21" t="n">
-        <v>1714.772304204091</v>
+        <v>1520.571119459616</v>
       </c>
       <c r="O21" t="n">
-        <v>2174.873370568727</v>
+        <v>1980.672185824252</v>
       </c>
       <c r="P21" t="n">
-        <v>2531.465921365857</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q21" t="n">
         <v>2531.465921365857</v>
@@ -5865,10 +5865,10 @@
         <v>1936.382561450211</v>
       </c>
       <c r="V21" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X21" t="n">
         <v>1268.754082009649</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.71501199482654</v>
+        <v>205.7240262335076</v>
       </c>
       <c r="C22" t="n">
-        <v>51.70199584033751</v>
+        <v>203.7110100790186</v>
       </c>
       <c r="D22" t="n">
-        <v>51.70199584033751</v>
+        <v>203.7110100790186</v>
       </c>
       <c r="E22" t="n">
-        <v>51.70199584033751</v>
+        <v>51.70199584033746</v>
       </c>
       <c r="F22" t="n">
-        <v>51.70199584033751</v>
+        <v>51.70199584033746</v>
       </c>
       <c r="G22" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="H22" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I22" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J22" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K22" t="n">
         <v>112.0311552538833</v>
@@ -5929,31 +5929,31 @@
         <v>782.931691199069</v>
       </c>
       <c r="Q22" t="n">
-        <v>782.931691199069</v>
+        <v>777.4033794310247</v>
       </c>
       <c r="R22" t="n">
-        <v>782.931691199069</v>
+        <v>777.4033794310247</v>
       </c>
       <c r="S22" t="n">
-        <v>741.0791900799331</v>
+        <v>735.5508783118891</v>
       </c>
       <c r="T22" t="n">
-        <v>676.5462392120836</v>
+        <v>671.0179274440395</v>
       </c>
       <c r="U22" t="n">
-        <v>399.4349425965785</v>
+        <v>551.4439568352592</v>
       </c>
       <c r="V22" t="n">
-        <v>306.3025915388317</v>
+        <v>458.3116057775126</v>
       </c>
       <c r="W22" t="n">
-        <v>187.7491434400615</v>
+        <v>339.7581576787424</v>
       </c>
       <c r="X22" t="n">
-        <v>124.0996327192679</v>
+        <v>276.1086469579489</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.66742729537569</v>
+        <v>221.6764415340567</v>
       </c>
     </row>
     <row r="23">
@@ -5963,73 +5963,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1351.513793084493</v>
+        <v>1351.513793084492</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.182987801131</v>
+        <v>1137.18298780113</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9619764121853</v>
+        <v>931.9619764121844</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7792099021228</v>
+        <v>704.779209902122</v>
       </c>
       <c r="F23" t="n">
-        <v>458.230972596124</v>
+        <v>458.2309725961231</v>
       </c>
       <c r="G23" t="n">
         <v>210.274158272086</v>
       </c>
       <c r="H23" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I23" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J23" t="n">
-        <v>50.62931842731713</v>
+        <v>131.2819911811612</v>
       </c>
       <c r="K23" t="n">
-        <v>358.6187566067425</v>
+        <v>439.2714293605866</v>
       </c>
       <c r="L23" t="n">
-        <v>790.6768958565433</v>
+        <v>871.3295686103875</v>
       </c>
       <c r="M23" t="n">
-        <v>1277.574482823758</v>
+        <v>1358.227155577602</v>
       </c>
       <c r="N23" t="n">
-        <v>1751.079753389619</v>
+        <v>1831.732426143463</v>
       </c>
       <c r="O23" t="n">
-        <v>2145.954364034585</v>
+        <v>2226.607036788429</v>
       </c>
       <c r="P23" t="n">
-        <v>2450.813248612012</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="Q23" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R23" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.241286149685</v>
+        <v>2524.241286149683</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.867611227625</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U23" t="n">
-        <v>2382.628765832485</v>
+        <v>2382.628765832484</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.252445112257</v>
+        <v>2213.252445112256</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.320468353689</v>
+        <v>2018.320468353688</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.893281259013</v>
+        <v>1803.893281259012</v>
       </c>
       <c r="Y23" t="n">
         <v>1577.954379218681</v>
@@ -6063,7 +6063,7 @@
         <v>108.986232773886</v>
       </c>
       <c r="I24" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J24" t="n">
         <v>137.8463925088447</v>
@@ -6072,13 +6072,13 @@
         <v>413.4208828411996</v>
       </c>
       <c r="L24" t="n">
-        <v>413.4208828411996</v>
+        <v>841.2082694571443</v>
       </c>
       <c r="M24" t="n">
-        <v>970.7651004929378</v>
+        <v>1398.552487108882</v>
       </c>
       <c r="N24" t="n">
-        <v>1556.255464163706</v>
+        <v>1520.571119459615</v>
       </c>
       <c r="O24" t="n">
         <v>1980.672185824251</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>193.1565364819539</v>
+        <v>53.71501199482642</v>
       </c>
       <c r="C25" t="n">
-        <v>191.1435203274649</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="D25" t="n">
-        <v>191.1435203274649</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="E25" t="n">
-        <v>191.1435203274649</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="F25" t="n">
-        <v>51.70199584033751</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="G25" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="H25" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I25" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J25" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="K25" t="n">
         <v>112.0311552538833</v>
@@ -6166,31 +6166,31 @@
         <v>782.931691199069</v>
       </c>
       <c r="Q25" t="n">
-        <v>764.8358896794716</v>
+        <v>782.931691199069</v>
       </c>
       <c r="R25" t="n">
-        <v>764.8358896794716</v>
+        <v>782.931691199069</v>
       </c>
       <c r="S25" t="n">
-        <v>722.9833885603358</v>
+        <v>741.0791900799333</v>
       </c>
       <c r="T25" t="n">
-        <v>658.4504376924863</v>
+        <v>676.5462392120837</v>
       </c>
       <c r="U25" t="n">
-        <v>538.8764670837058</v>
+        <v>556.9722686033034</v>
       </c>
       <c r="V25" t="n">
-        <v>445.7441160259591</v>
+        <v>306.3025915388314</v>
       </c>
       <c r="W25" t="n">
-        <v>327.1906679271889</v>
+        <v>187.7491434400612</v>
       </c>
       <c r="X25" t="n">
-        <v>263.5411572063953</v>
+        <v>124.0996327192677</v>
       </c>
       <c r="Y25" t="n">
-        <v>209.1089517825031</v>
+        <v>69.66742729537552</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476239</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027184</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472545</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5773097967885</v>
+        <v>964.577309796789</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9606153250966</v>
+        <v>653.9606153250976</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9353438353659</v>
+        <v>341.9353438353669</v>
       </c>
       <c r="H26" t="n">
-        <v>118.2220468249039</v>
+        <v>118.222046824904</v>
       </c>
       <c r="I26" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166296</v>
       </c>
       <c r="J26" t="n">
         <v>288.6637597322124</v>
       </c>
       <c r="K26" t="n">
-        <v>596.8002826177374</v>
+        <v>698.1273576550345</v>
       </c>
       <c r="L26" t="n">
-        <v>1130.332581610935</v>
+        <v>1231.659656648232</v>
       </c>
       <c r="M26" t="n">
-        <v>1718.704328321546</v>
+        <v>1820.031403358843</v>
       </c>
       <c r="N26" t="n">
-        <v>2293.683758630804</v>
+        <v>2293.683758630806</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.032529019166</v>
+        <v>2790.032529019168</v>
       </c>
       <c r="P26" t="n">
-        <v>3196.36557333999</v>
+        <v>3196.365573339992</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.871985516403</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083148</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.723957701282</v>
       </c>
       <c r="T26" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.28182561353</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.974523052695</v>
+        <v>3154.974523052696</v>
       </c>
       <c r="V26" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166775</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.529311242512</v>
+        <v>2662.529311242514</v>
       </c>
       <c r="X26" t="n">
         <v>2384.033666982144</v>
       </c>
       <c r="Y26" t="n">
-        <v>2094.026307776119</v>
+        <v>2094.026307776121</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E27" t="n">
-        <v>488.5340157403507</v>
+        <v>488.5340157403508</v>
       </c>
       <c r="F27" t="n">
         <v>353.8402176902251</v>
@@ -6297,31 +6297,31 @@
         <v>225.4029004625095</v>
       </c>
       <c r="H27" t="n">
-        <v>128.2772553482318</v>
+        <v>128.2772553482319</v>
       </c>
       <c r="I27" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166296</v>
       </c>
       <c r="J27" t="n">
-        <v>69.92034100166292</v>
+        <v>157.1374150831905</v>
       </c>
       <c r="K27" t="n">
-        <v>345.4948313340178</v>
+        <v>432.7119054155455</v>
       </c>
       <c r="L27" t="n">
-        <v>773.2822179499626</v>
+        <v>860.4992920314902</v>
       </c>
       <c r="M27" t="n">
-        <v>1330.626435601701</v>
+        <v>1417.843509683228</v>
       </c>
       <c r="N27" t="n">
-        <v>1916.116799272469</v>
+        <v>1539.862142033962</v>
       </c>
       <c r="O27" t="n">
-        <v>2376.217865637104</v>
+        <v>1999.963208398597</v>
       </c>
       <c r="P27" t="n">
-        <v>2550.756943940202</v>
+        <v>2356.555759195727</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.756943940202</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.096001248593</v>
+        <v>435.0960012485938</v>
       </c>
       <c r="C28" t="n">
-        <v>369.014527928411</v>
+        <v>369.0145279284117</v>
       </c>
       <c r="D28" t="n">
-        <v>319.4771309743115</v>
+        <v>319.477130974312</v>
       </c>
       <c r="E28" t="n">
-        <v>271.002612953768</v>
+        <v>271.0026129537684</v>
       </c>
       <c r="F28" t="n">
-        <v>222.0564541976828</v>
+        <v>222.0564541976831</v>
       </c>
       <c r="G28" t="n">
-        <v>156.9153196189694</v>
+        <v>156.9153196189696</v>
       </c>
       <c r="H28" t="n">
-        <v>103.2476000974933</v>
+        <v>103.2476000974934</v>
       </c>
       <c r="I28" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166296</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4480754567077</v>
+        <v>129.4480754567099</v>
       </c>
       <c r="K28" t="n">
-        <v>292.3240720266706</v>
+        <v>292.3240720266726</v>
       </c>
       <c r="L28" t="n">
-        <v>529.9767315995728</v>
+        <v>529.9767315995748</v>
       </c>
       <c r="M28" t="n">
-        <v>786.9494728320417</v>
+        <v>786.9494728320437</v>
       </c>
       <c r="N28" t="n">
-        <v>1043.459262822379</v>
+        <v>1043.459262822381</v>
       </c>
       <c r="O28" t="n">
-        <v>1277.215367021226</v>
+        <v>1277.215367021227</v>
       </c>
       <c r="P28" t="n">
-        <v>1470.59540668884</v>
+        <v>1470.595406688842</v>
       </c>
       <c r="Q28" t="n">
-        <v>1554.333871362879</v>
+        <v>1554.333871362881</v>
       </c>
       <c r="R28" t="n">
-        <v>1519.323011771655</v>
+        <v>1519.323011771656</v>
       </c>
       <c r="S28" t="n">
-        <v>1413.402053486826</v>
+        <v>1413.402053486827</v>
       </c>
       <c r="T28" t="n">
-        <v>1284.800645453283</v>
+        <v>1284.800645453285</v>
       </c>
       <c r="U28" t="n">
-        <v>1101.15821767881</v>
+        <v>1101.158217678811</v>
       </c>
       <c r="V28" t="n">
-        <v>943.95740945537</v>
+        <v>943.9574094553714</v>
       </c>
       <c r="W28" t="n">
-        <v>761.3355041909068</v>
+        <v>761.3355041909081</v>
       </c>
       <c r="X28" t="n">
-        <v>633.6175363044204</v>
+        <v>633.6175363044214</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.1168737148352</v>
+        <v>515.1168737148361</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.517264476237</v>
+        <v>1803.517264476239</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.118002027182</v>
+        <v>1525.118002027184</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472545</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5773097967881</v>
+        <v>964.5773097967895</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9606153250961</v>
+        <v>653.9606153250975</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9353438353655</v>
+        <v>341.9353438353669</v>
       </c>
       <c r="H29" t="n">
         <v>118.2220468249039</v>
@@ -6464,16 +6464,16 @@
         <v>288.6637597322124</v>
       </c>
       <c r="K29" t="n">
-        <v>698.1273576550345</v>
+        <v>596.8002826177383</v>
       </c>
       <c r="L29" t="n">
-        <v>1231.659656648232</v>
+        <v>1130.332581610936</v>
       </c>
       <c r="M29" t="n">
-        <v>1820.031403358843</v>
+        <v>1718.704328321547</v>
       </c>
       <c r="N29" t="n">
-        <v>2395.010833668101</v>
+        <v>2293.683758630805</v>
       </c>
       <c r="O29" t="n">
         <v>2790.032529019167</v>
@@ -6488,25 +6488,25 @@
         <v>3496.017050083147</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.723957701282</v>
       </c>
       <c r="T29" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613529</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.974523052694</v>
+        <v>3154.974523052696</v>
       </c>
       <c r="V29" t="n">
-        <v>2921.529745166773</v>
+        <v>2921.529745166775</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.529311242512</v>
+        <v>2662.529311242514</v>
       </c>
       <c r="X29" t="n">
-        <v>2384.033666982143</v>
+        <v>2384.033666982144</v>
       </c>
       <c r="Y29" t="n">
-        <v>2094.026307776119</v>
+        <v>2094.02630777612</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0960012485932</v>
+        <v>435.0960012485933</v>
       </c>
       <c r="C31" t="n">
-        <v>369.0145279284112</v>
+        <v>369.0145279284113</v>
       </c>
       <c r="D31" t="n">
-        <v>319.4771309743115</v>
+        <v>319.4771309743116</v>
       </c>
       <c r="E31" t="n">
-        <v>271.0026129537681</v>
+        <v>271.0026129537682</v>
       </c>
       <c r="F31" t="n">
         <v>222.0564541976829</v>
       </c>
       <c r="G31" t="n">
-        <v>156.9153196189694</v>
+        <v>156.9153196189695</v>
       </c>
       <c r="H31" t="n">
         <v>103.2476000974933</v>
@@ -6619,7 +6619,7 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J31" t="n">
-        <v>129.4480754567081</v>
+        <v>129.448075456708</v>
       </c>
       <c r="K31" t="n">
         <v>292.3240720266707</v>
@@ -6628,10 +6628,10 @@
         <v>529.976731599573</v>
       </c>
       <c r="M31" t="n">
-        <v>786.949472832042</v>
+        <v>786.9494728320418</v>
       </c>
       <c r="N31" t="n">
-        <v>1043.459262822379</v>
+        <v>1043.45926282238</v>
       </c>
       <c r="O31" t="n">
         <v>1277.215367021226</v>
@@ -6649,7 +6649,7 @@
         <v>1413.402053486826</v>
       </c>
       <c r="T31" t="n">
-        <v>1284.800645453283</v>
+        <v>1284.800645453284</v>
       </c>
       <c r="U31" t="n">
         <v>1101.15821767881</v>
@@ -6664,7 +6664,7 @@
         <v>633.6175363044209</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1168737148354</v>
+        <v>515.1168737148355</v>
       </c>
     </row>
     <row r="32">
@@ -6710,13 +6710,13 @@
         <v>1820.031403358843</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.683758630805</v>
+        <v>2395.010833668101</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.032529019167</v>
+        <v>2891.359604056463</v>
       </c>
       <c r="P32" t="n">
-        <v>3196.365573339991</v>
+        <v>3297.692648377287</v>
       </c>
       <c r="Q32" t="n">
         <v>3449.871985516404</v>
@@ -6725,10 +6725,10 @@
         <v>3496.017050083147</v>
       </c>
       <c r="S32" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.723957701282</v>
       </c>
       <c r="T32" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613529</v>
       </c>
       <c r="U32" t="n">
         <v>3154.974523052695</v>
@@ -6777,16 +6777,16 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J33" t="n">
-        <v>157.1374150831905</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="K33" t="n">
-        <v>432.7119054155455</v>
+        <v>345.4948313340178</v>
       </c>
       <c r="L33" t="n">
-        <v>860.4992920314902</v>
+        <v>773.2822179499626</v>
       </c>
       <c r="M33" t="n">
-        <v>1417.843509683228</v>
+        <v>1330.626435601701</v>
       </c>
       <c r="N33" t="n">
         <v>1539.862142033962</v>
@@ -6856,25 +6856,25 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J34" t="n">
-        <v>129.4480754567088</v>
+        <v>129.448075456708</v>
       </c>
       <c r="K34" t="n">
-        <v>292.3240720266716</v>
+        <v>292.3240720266708</v>
       </c>
       <c r="L34" t="n">
-        <v>529.9767315995739</v>
+        <v>529.9767315995731</v>
       </c>
       <c r="M34" t="n">
-        <v>786.9494728320428</v>
+        <v>786.9494728320421</v>
       </c>
       <c r="N34" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O34" t="n">
         <v>1277.215367021226</v>
       </c>
       <c r="P34" t="n">
-        <v>1470.595406688841</v>
+        <v>1470.59540668884</v>
       </c>
       <c r="Q34" t="n">
         <v>1554.33387136288</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1436.213271669372</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C35" t="n">
         <v>1208.407549338416</v>
@@ -6962,13 +6962,13 @@
         <v>2723.964736331493</v>
       </c>
       <c r="S35" t="n">
-        <v>2703.265184067725</v>
+        <v>2703.265184067726</v>
       </c>
       <c r="T35" t="n">
-        <v>2635.416592098071</v>
+        <v>2635.416592098072</v>
       </c>
       <c r="U35" t="n">
-        <v>2534.702829655337</v>
+        <v>2534.702829655338</v>
       </c>
       <c r="V35" t="n">
         <v>2351.851591887515</v>
@@ -6977,10 +6977,10 @@
         <v>2143.444698081352</v>
       </c>
       <c r="X35" t="n">
-        <v>1915.542593939081</v>
+        <v>1915.542593939082</v>
       </c>
       <c r="Y35" t="n">
-        <v>1676.128774851155</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>54.47929472662986</v>
       </c>
       <c r="J36" t="n">
-        <v>141.6963688081574</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="K36" t="n">
-        <v>417.2708591405124</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="L36" t="n">
-        <v>845.0582457564572</v>
+        <v>482.2666813425746</v>
       </c>
       <c r="M36" t="n">
-        <v>1402.402463408195</v>
+        <v>1039.610898994313</v>
       </c>
       <c r="N36" t="n">
-        <v>1524.421095758928</v>
+        <v>1625.101262665081</v>
       </c>
       <c r="O36" t="n">
-        <v>1984.522162123563</v>
+        <v>2085.202329029717</v>
       </c>
       <c r="P36" t="n">
-        <v>2341.114712920693</v>
+        <v>2441.794879826846</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.315897665168</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.20717640051049</v>
+        <v>87.58900179270597</v>
       </c>
       <c r="C37" t="n">
-        <v>73.71924319842694</v>
+        <v>72.10106859062242</v>
       </c>
       <c r="D37" t="n">
-        <v>73.71924319842694</v>
+        <v>72.10106859062242</v>
       </c>
       <c r="E37" t="n">
-        <v>73.71924319842694</v>
+        <v>72.10106859062242</v>
       </c>
       <c r="F37" t="n">
-        <v>73.71924319842694</v>
+        <v>72.10106859062242</v>
       </c>
       <c r="G37" t="n">
-        <v>59.17164873781203</v>
+        <v>57.55347413000752</v>
       </c>
       <c r="H37" t="n">
         <v>54.47929472662986</v>
@@ -7114,31 +7114,31 @@
         <v>786.7816674983816</v>
       </c>
       <c r="Q37" t="n">
-        <v>768.6858659787842</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="R37" t="n">
-        <v>768.6858659787842</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="S37" t="n">
-        <v>713.358447812054</v>
+        <v>711.7402732042494</v>
       </c>
       <c r="T37" t="n">
-        <v>635.3505798966099</v>
+        <v>633.7324052888054</v>
       </c>
       <c r="U37" t="n">
-        <v>502.301692240235</v>
+        <v>500.6835176324304</v>
       </c>
       <c r="V37" t="n">
-        <v>395.6944241348938</v>
+        <v>394.0762495270892</v>
       </c>
       <c r="W37" t="n">
-        <v>263.666058988529</v>
+        <v>262.0478843807245</v>
       </c>
       <c r="X37" t="n">
-        <v>186.5416312201409</v>
+        <v>184.9234566123364</v>
       </c>
       <c r="Y37" t="n">
-        <v>118.6345087486542</v>
+        <v>117.0163341408496</v>
       </c>
     </row>
     <row r="38">
@@ -7154,22 +7154,22 @@
         <v>1208.407549338416</v>
       </c>
       <c r="D38" t="n">
-        <v>989.7116209018759</v>
+        <v>989.7116209018761</v>
       </c>
       <c r="E38" t="n">
-        <v>749.0539373442189</v>
+        <v>749.0539373442191</v>
       </c>
       <c r="F38" t="n">
-        <v>489.0307829906253</v>
+        <v>489.0307829906255</v>
       </c>
       <c r="G38" t="n">
         <v>227.5990516189933</v>
       </c>
       <c r="H38" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="I38" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="J38" t="n">
         <v>171.7485537137826</v>
@@ -7184,13 +7184,13 @@
         <v>1398.693718110223</v>
       </c>
       <c r="N38" t="n">
-        <v>1872.198988676085</v>
+        <v>1872.198988676084</v>
       </c>
       <c r="O38" t="n">
         <v>2267.07359932105</v>
       </c>
       <c r="P38" t="n">
-        <v>2571.932483898478</v>
+        <v>2571.932483898477</v>
       </c>
       <c r="Q38" t="n">
         <v>2723.964736331493</v>
@@ -7199,7 +7199,7 @@
         <v>2723.964736331493</v>
       </c>
       <c r="S38" t="n">
-        <v>2703.265184067726</v>
+        <v>2703.265184067725</v>
       </c>
       <c r="T38" t="n">
         <v>2635.416592098072</v>
@@ -7248,22 +7248,22 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I39" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="J39" t="n">
-        <v>141.6963688081575</v>
+        <v>141.6963688081574</v>
       </c>
       <c r="K39" t="n">
         <v>417.2708591405124</v>
       </c>
       <c r="L39" t="n">
-        <v>417.2708591405124</v>
+        <v>845.0582457564572</v>
       </c>
       <c r="M39" t="n">
-        <v>974.6150767922505</v>
+        <v>1399.031798452795</v>
       </c>
       <c r="N39" t="n">
-        <v>1524.421095758928</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="O39" t="n">
         <v>1984.522162123563</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.58900179270616</v>
+        <v>107.3029779201078</v>
       </c>
       <c r="C40" t="n">
-        <v>72.10106859062255</v>
+        <v>91.81504471802427</v>
       </c>
       <c r="D40" t="n">
-        <v>72.10106859062255</v>
+        <v>91.81504471802427</v>
       </c>
       <c r="E40" t="n">
-        <v>72.10106859062255</v>
+        <v>91.81504471802427</v>
       </c>
       <c r="F40" t="n">
-        <v>72.10106859062255</v>
+        <v>72.10106859062242</v>
       </c>
       <c r="G40" t="n">
-        <v>57.55347413000759</v>
+        <v>57.55347413000752</v>
       </c>
       <c r="H40" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="I40" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="J40" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="K40" t="n">
         <v>115.881131553196</v>
@@ -7357,25 +7357,25 @@
         <v>786.7816674983816</v>
       </c>
       <c r="S40" t="n">
-        <v>731.4542493316512</v>
+        <v>731.4542493316513</v>
       </c>
       <c r="T40" t="n">
-        <v>653.446381416207</v>
+        <v>653.4463814162073</v>
       </c>
       <c r="U40" t="n">
-        <v>520.3974937598321</v>
+        <v>520.3974937598323</v>
       </c>
       <c r="V40" t="n">
-        <v>413.7902256544908</v>
+        <v>413.7902256544911</v>
       </c>
       <c r="W40" t="n">
-        <v>262.0478843807248</v>
+        <v>281.7618605081263</v>
       </c>
       <c r="X40" t="n">
-        <v>184.9234566123367</v>
+        <v>204.6374327397382</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.0163341408499</v>
+        <v>136.7303102682515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1436.213271669374</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.407549338417</v>
+        <v>1208.407549338416</v>
       </c>
       <c r="D41" t="n">
-        <v>989.7116209018772</v>
+        <v>989.7116209018759</v>
       </c>
       <c r="E41" t="n">
-        <v>749.0539373442202</v>
+        <v>749.053937344219</v>
       </c>
       <c r="F41" t="n">
-        <v>489.0307829906268</v>
+        <v>489.0307829906255</v>
       </c>
       <c r="G41" t="n">
-        <v>227.5990516189932</v>
+        <v>227.5990516189933</v>
       </c>
       <c r="H41" t="n">
         <v>54.47929472662987</v>
@@ -7409,19 +7409,19 @@
         <v>54.47929472662987</v>
       </c>
       <c r="J41" t="n">
-        <v>171.7485537137827</v>
+        <v>171.7485537137826</v>
       </c>
       <c r="K41" t="n">
-        <v>479.7379918932081</v>
+        <v>479.737991893208</v>
       </c>
       <c r="L41" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430088</v>
       </c>
       <c r="M41" t="n">
         <v>1398.693718110223</v>
       </c>
       <c r="N41" t="n">
-        <v>1872.198988676085</v>
+        <v>1872.198988676084</v>
       </c>
       <c r="O41" t="n">
         <v>2267.07359932105</v>
@@ -7442,19 +7442,19 @@
         <v>2635.416592098072</v>
       </c>
       <c r="U41" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655337</v>
       </c>
       <c r="V41" t="n">
         <v>2351.851591887515</v>
       </c>
       <c r="W41" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081352</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939081</v>
       </c>
       <c r="Y41" t="n">
-        <v>1676.128774851157</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.3029779201084</v>
+        <v>87.5890017927059</v>
       </c>
       <c r="C43" t="n">
-        <v>91.81504471802498</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="D43" t="n">
-        <v>91.81504471802498</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="E43" t="n">
-        <v>91.81504471802498</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="F43" t="n">
-        <v>72.10106859062226</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="G43" t="n">
-        <v>57.55347413000744</v>
+        <v>57.5534741300075</v>
       </c>
       <c r="H43" t="n">
         <v>54.47929472662987</v>
@@ -7594,25 +7594,25 @@
         <v>786.7816674983816</v>
       </c>
       <c r="S43" t="n">
-        <v>731.4542493316513</v>
+        <v>711.7402732042492</v>
       </c>
       <c r="T43" t="n">
-        <v>653.4463814162074</v>
+        <v>633.7324052888051</v>
       </c>
       <c r="U43" t="n">
-        <v>520.3974937598325</v>
+        <v>500.6835176324303</v>
       </c>
       <c r="V43" t="n">
-        <v>413.7902256544913</v>
+        <v>394.076249527089</v>
       </c>
       <c r="W43" t="n">
-        <v>281.7618605081267</v>
+        <v>262.0478843807243</v>
       </c>
       <c r="X43" t="n">
-        <v>204.6374327397387</v>
+        <v>184.9234566123363</v>
       </c>
       <c r="Y43" t="n">
-        <v>136.730310268252</v>
+        <v>117.0163341408495</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>989.7116209018764</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442193</v>
+        <v>749.0539373442191</v>
       </c>
       <c r="F44" t="n">
-        <v>489.0307829906259</v>
+        <v>489.0307829906258</v>
       </c>
       <c r="G44" t="n">
         <v>227.5990516189933</v>
@@ -7646,19 +7646,19 @@
         <v>54.47929472662987</v>
       </c>
       <c r="J44" t="n">
-        <v>171.7485537137826</v>
+        <v>171.7485537137827</v>
       </c>
       <c r="K44" t="n">
-        <v>479.737991893208</v>
+        <v>479.7379918932081</v>
       </c>
       <c r="L44" t="n">
-        <v>911.7961311430088</v>
+        <v>911.796131143009</v>
       </c>
       <c r="M44" t="n">
         <v>1398.693718110223</v>
       </c>
       <c r="N44" t="n">
-        <v>1872.198988676084</v>
+        <v>1872.198988676085</v>
       </c>
       <c r="O44" t="n">
         <v>2267.07359932105</v>
@@ -7725,22 +7725,22 @@
         <v>54.47929472662987</v>
       </c>
       <c r="J45" t="n">
-        <v>54.47929472662987</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="K45" t="n">
-        <v>330.0537850589848</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="L45" t="n">
-        <v>757.8411716749295</v>
+        <v>569.4837554241022</v>
       </c>
       <c r="M45" t="n">
-        <v>1315.185389326668</v>
+        <v>1126.82797307584</v>
       </c>
       <c r="N45" t="n">
-        <v>1900.675752997436</v>
+        <v>1712.318336746609</v>
       </c>
       <c r="O45" t="n">
-        <v>2341.114712920693</v>
+        <v>2172.419403111244</v>
       </c>
       <c r="P45" t="n">
         <v>2341.114712920693</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.58900179270599</v>
+        <v>87.58900179270607</v>
       </c>
       <c r="C46" t="n">
-        <v>72.10106859062243</v>
+        <v>72.10106859062249</v>
       </c>
       <c r="D46" t="n">
-        <v>72.10106859062243</v>
+        <v>72.10106859062249</v>
       </c>
       <c r="E46" t="n">
-        <v>72.10106859062243</v>
+        <v>72.10106859062249</v>
       </c>
       <c r="F46" t="n">
-        <v>72.10106859062243</v>
+        <v>72.10106859062249</v>
       </c>
       <c r="G46" t="n">
-        <v>57.55347413000753</v>
+        <v>57.55347413000756</v>
       </c>
       <c r="H46" t="n">
         <v>54.47929472662987</v>
@@ -7825,31 +7825,31 @@
         <v>786.7816674983816</v>
       </c>
       <c r="Q46" t="n">
-        <v>768.6858659787842</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="R46" t="n">
-        <v>768.6858659787842</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="S46" t="n">
-        <v>711.7402732042494</v>
+        <v>731.4542493316512</v>
       </c>
       <c r="T46" t="n">
-        <v>633.7324052888054</v>
+        <v>653.4463814162071</v>
       </c>
       <c r="U46" t="n">
-        <v>500.6835176324304</v>
+        <v>520.3974937598322</v>
       </c>
       <c r="V46" t="n">
-        <v>394.0762495270892</v>
+        <v>413.7902256544909</v>
       </c>
       <c r="W46" t="n">
-        <v>262.0478843807245</v>
+        <v>281.7618605081261</v>
       </c>
       <c r="X46" t="n">
-        <v>184.9234566123364</v>
+        <v>204.637432739738</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.0163341408497</v>
+        <v>136.7303102682512</v>
       </c>
     </row>
   </sheetData>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.371802766976</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>421.3890363425141</v>
+        <v>230.8346538512777</v>
       </c>
       <c r="L11" t="n">
         <v>542.9595789155856</v>
@@ -8708,7 +8708,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.9089023233601</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8775,10 +8775,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>137.2633189153692</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>351.1546355601962</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339643</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.8255997236959</v>
+        <v>101.371802766976</v>
       </c>
       <c r="K14" t="n">
-        <v>230.8346538512777</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>542.9595789155856</v>
+        <v>470.8589933810691</v>
       </c>
       <c r="M14" t="n">
         <v>584.3675935406823</v>
@@ -9003,16 +9003,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>65.44673707356949</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>333.4261317885763</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>171.4033357675612</v>
+        <v>76.93766118339643</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9170,13 +9170,13 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>393.8132110494458</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
-        <v>495.0402356415689</v>
+        <v>304.4858531503325</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
@@ -9243,7 +9243,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>65.44673707356949</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>154.991822686989</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>83.30528113975545</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>101.371802766976</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>584.3675935406823</v>
+        <v>547.3811427999673</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9419,7 +9419,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.9089023233596</v>
+        <v>122.4415561073552</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>351.1546355601962</v>
+        <v>154.991822686989</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>76.93766118339643</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.371802766976</v>
+        <v>182.8391489829801</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.9089023233596</v>
+        <v>122.4415561073552</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9720,16 +9720,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>49.98397756525984</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869881</v>
       </c>
       <c r="O24" t="n">
-        <v>475.9762224293539</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9963,16 +9963,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869883</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>230.1092027733001</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>76.93766118339643</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>154.9918226869883</v>
+        <v>243.0898773147939</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>65.44673707356949</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>154.9918226869876</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>171.4033357675603</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10832,10 +10832,10 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
-        <v>568.5510017355797</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
-        <v>495.0402356415689</v>
+        <v>495.0402356415687</v>
       </c>
       <c r="P38" t="n">
         <v>418.3383206229274</v>
@@ -10905,16 +10905,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>49.98397756525984</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>602.011870798838</v>
       </c>
       <c r="N39" t="n">
-        <v>587.1002940162247</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>47.27246317627821</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11078,7 +11078,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578763</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11312,7 +11312,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3383206229273</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>65.44673707356949</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11388,10 +11388,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>492.1603014825987</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>53.80710347724202</v>
+        <v>224.2064063150694</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -23264,13 +23264,13 @@
         <v>280.0985927864969</v>
       </c>
       <c r="E11" t="n">
-        <v>301.8407303564024</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>321.0125464443796</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>299.1140408184914</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.9124485024232</v>
       </c>
       <c r="X11" t="n">
-        <v>235.3859192553027</v>
+        <v>289.2127067351698</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.04542406525761</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62.5440419019631</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.49179175774255</v>
+        <v>61.49179175774253</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>61.95871608592884</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.63101189177374</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>140.8174128706116</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.8176748810939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>44.86071563443281</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F14" t="n">
-        <v>321.0125464443794</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>322.4070376922378</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.32070768241306</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>163.2962484526289</v>
       </c>
       <c r="V14" t="n">
-        <v>227.5032311316642</v>
+        <v>244.6123490244663</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>289.2127067351697</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>300.6093045313684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.90441658981407</v>
+        <v>86.70437321876962</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>62.54404190196298</v>
+        <v>62.54404190196308</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>77.99174215033074</v>
       </c>
       <c r="H16" t="n">
-        <v>66.63306124366578</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.49600542227654</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.16276991271695</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>140.8174128706115</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1182728.656258141</v>
+        <v>1182728.656258142</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1182728.656258142</v>
+        <v>1182728.656258141</v>
       </c>
     </row>
     <row r="7">
@@ -26320,22 +26320,22 @@
         <v>172322.2420891434</v>
       </c>
       <c r="E2" t="n">
-        <v>150589.5295769478</v>
+        <v>150589.5295769477</v>
       </c>
       <c r="F2" t="n">
-        <v>150589.529576948</v>
+        <v>150589.5295769476</v>
       </c>
       <c r="G2" t="n">
+        <v>172715.4136111908</v>
+      </c>
+      <c r="H2" t="n">
         <v>172715.4136111909</v>
       </c>
-      <c r="H2" t="n">
-        <v>172715.4136111908</v>
-      </c>
       <c r="I2" t="n">
-        <v>172715.4136111908</v>
+        <v>172715.4136111909</v>
       </c>
       <c r="J2" t="n">
-        <v>172715.4136111906</v>
+        <v>172715.4136111907</v>
       </c>
       <c r="K2" t="n">
         <v>172715.4136111906</v>
@@ -26344,16 +26344,16 @@
         <v>172715.4136111907</v>
       </c>
       <c r="M2" t="n">
-        <v>172715.4136111908</v>
+        <v>172715.4136111907</v>
       </c>
       <c r="N2" t="n">
         <v>172715.4136111909</v>
       </c>
       <c r="O2" t="n">
+        <v>172715.4136111909</v>
+      </c>
+      <c r="P2" t="n">
         <v>172715.4136111908</v>
-      </c>
-      <c r="P2" t="n">
-        <v>172715.4136111909</v>
       </c>
     </row>
     <row r="3">
@@ -26375,25 +26375,25 @@
         <v>367830.3395149714</v>
       </c>
       <c r="F3" t="n">
-        <v>8.85458056083215e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61543.83320915236</v>
+        <v>61543.83320915244</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613921</v>
+        <v>83547.74167613924</v>
       </c>
       <c r="K3" t="n">
-        <v>7.71771218361599e-11</v>
+        <v>5.145141455743993e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>61543.83320915236</v>
+        <v>61543.83320915244</v>
       </c>
       <c r="M3" t="n">
         <v>149683.3109415065</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.4877956127</v>
+        <v>20455.4877956125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>255024.1601164463</v>
       </c>
       <c r="F4" t="n">
-        <v>255024.1601164463</v>
+        <v>255024.1601164462</v>
       </c>
       <c r="G4" t="n">
         <v>310950.7206745582</v>
@@ -26457,7 +26457,7 @@
         <v>308176.3362657602</v>
       </c>
       <c r="P4" t="n">
-        <v>308176.3362657602</v>
+        <v>308176.3362657601</v>
       </c>
     </row>
     <row r="5">
@@ -26485,13 +26485,13 @@
         <v>55349.24364233074</v>
       </c>
       <c r="H5" t="n">
-        <v>55349.24364233074</v>
+        <v>55349.24364233076</v>
       </c>
       <c r="I5" t="n">
         <v>55349.24364233074</v>
       </c>
       <c r="J5" t="n">
-        <v>64678.11138462553</v>
+        <v>64678.11138462555</v>
       </c>
       <c r="K5" t="n">
         <v>64678.11138462555</v>
@@ -26509,7 +26509,7 @@
         <v>57153.73105654695</v>
       </c>
       <c r="P5" t="n">
-        <v>57153.73105654695</v>
+        <v>57153.73105654694</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-262912.7643251643</v>
+        <v>-262917.1328976315</v>
       </c>
       <c r="C6" t="n">
-        <v>-262912.7643251643</v>
+        <v>-262917.1328976314</v>
       </c>
       <c r="D6" t="n">
-        <v>-262912.7643251643</v>
+        <v>-262917.1328976316</v>
       </c>
       <c r="E6" t="n">
-        <v>-521146.8030542253</v>
+        <v>-521392.6462101614</v>
       </c>
       <c r="F6" t="n">
-        <v>-153316.4635392539</v>
+        <v>-153562.3066951901</v>
       </c>
       <c r="G6" t="n">
-        <v>-255128.3839148504</v>
+        <v>-255128.3839148506</v>
       </c>
       <c r="H6" t="n">
         <v>-193584.5507056981</v>
@@ -26552,13 +26552,13 @@
         <v>-262699.5393952937</v>
       </c>
       <c r="M6" t="n">
-        <v>-342297.9646526228</v>
+        <v>-342297.9646526229</v>
       </c>
       <c r="N6" t="n">
         <v>-192614.6537111162</v>
       </c>
       <c r="O6" t="n">
-        <v>-213070.1415067291</v>
+        <v>-213070.1415067288</v>
       </c>
       <c r="P6" t="n">
         <v>-192614.6537111163</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="G2" t="n">
         <v>165.9269238499924</v>
@@ -26707,7 +26707,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="J2" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="K2" t="n">
         <v>102.4991512559563</v>
@@ -26719,10 +26719,10 @@
         <v>152.5867559728738</v>
       </c>
       <c r="N2" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="O2" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="P2" t="n">
         <v>152.5867559728738</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="F4" t="n">
         <v>632.8664803414641</v>
@@ -26805,13 +26805,13 @@
         <v>632.8664803414641</v>
       </c>
       <c r="H4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.8664803414642</v>
       </c>
       <c r="I4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.866480341464</v>
       </c>
       <c r="J4" t="n">
-        <v>874.0042625207865</v>
+        <v>874.0042625207869</v>
       </c>
       <c r="K4" t="n">
         <v>874.0042625207867</v>
@@ -26823,7 +26823,7 @@
         <v>680.9911840828732</v>
       </c>
       <c r="N4" t="n">
-        <v>680.9911840828734</v>
+        <v>680.9911840828732</v>
       </c>
       <c r="O4" t="n">
         <v>680.9911840828734</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F2" t="n">
-        <v>1.106822570104019e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>76.92979151144046</v>
+        <v>76.92979151144056</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.56935974451574</v>
+        <v>25.56935974451559</v>
       </c>
       <c r="K2" t="n">
-        <v>9.647140229519987e-14</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144044</v>
+        <v>76.92979151144056</v>
       </c>
       <c r="M2" t="n">
-        <v>50.08760471691751</v>
+        <v>50.08760471691757</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451588</v>
+        <v>25.56935974451562</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.1377821793224</v>
+        <v>241.1377821793229</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.8534019035508</v>
+        <v>439.8534019035507</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="K2" t="n">
-        <v>1.106822570104019e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144046</v>
+        <v>76.92979151144056</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451574</v>
+        <v>25.56935974451559</v>
       </c>
       <c r="P2" t="n">
-        <v>9.647140229519987e-14</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="C11" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="D11" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="E11" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F11" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="G11" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="H11" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="I11" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>55.88797492591272</v>
       </c>
       <c r="S11" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="T11" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="U11" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="V11" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="W11" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="X11" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
     </row>
     <row r="12">
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-3.623767952376511e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="C13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="D13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="E13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="H13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="I13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="J13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="L13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="M13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="O13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="P13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="R13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="S13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="T13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="U13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="V13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="W13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="X13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.99713233855179</v>
+        <v>88.99713233855181</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>55.88797492591272</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
     </row>
     <row r="15">
@@ -28421,10 +28421,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>-6.110667527536862e-13</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855191</v>
+        <v>88.99713233855181</v>
       </c>
     </row>
     <row r="17">
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-6.110667527536862e-13</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28737,10 +28737,10 @@
         <v>165.9269238499924</v>
       </c>
       <c r="H19" t="n">
-        <v>155.6301935822177</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>135.4931377608283</v>
+        <v>135.1613785963886</v>
       </c>
       <c r="J19" t="n">
         <v>42.3701265538906</v>
@@ -28782,7 +28782,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="W19" t="n">
-        <v>9.964971103334904</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X19" t="n">
         <v>165.9269238499924</v>
@@ -28937,7 +28937,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.91484350440139</v>
+        <v>12.44181485403763</v>
       </c>
       <c r="R22" t="n">
         <v>137.1599022512688</v>
@@ -29013,7 +29013,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="U22" t="n">
-        <v>9.964971103334904</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V22" t="n">
         <v>165.9269238499924</v>
@@ -29205,7 +29205,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>12.90873918222454</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>165.9269238499924</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R25" t="n">
         <v>137.1599022512688</v>
@@ -29253,7 +29253,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="V25" t="n">
-        <v>165.9269238499924</v>
+        <v>9.964971103334335</v>
       </c>
       <c r="W25" t="n">
         <v>165.9269238499924</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="C26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="D26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="E26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="F26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="G26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="H26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="I26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="J26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1485704102015575</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="L26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="M26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="N26" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102032628</v>
       </c>
       <c r="O26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="P26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="R26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="S26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="T26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="U26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="V26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="W26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="X26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="C28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="D28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="E28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="F28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="G28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="H28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="I28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="J28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559582</v>
       </c>
       <c r="K28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="L28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="M28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="N28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="O28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="P28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="R28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="S28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="T28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="U28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="V28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="W28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="X28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
     </row>
     <row r="29">
@@ -29536,7 +29536,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="K29" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102025238</v>
       </c>
       <c r="L29" t="n">
         <v>102.4991512559563</v>
@@ -29548,7 +29548,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1485704102022964</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P29" t="n">
         <v>102.4991512559563</v>
@@ -29782,7 +29782,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="N32" t="n">
-        <v>0.1485704102022964</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O32" t="n">
         <v>102.4991512559563</v>
@@ -29791,7 +29791,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102026659</v>
       </c>
       <c r="R32" t="n">
         <v>102.4991512559563</v>
@@ -29928,7 +29928,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="J34" t="n">
-        <v>102.4991512559571</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K34" t="n">
         <v>102.4991512559563</v>
@@ -29949,7 +29949,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559569</v>
       </c>
       <c r="R34" t="n">
         <v>102.4991512559563</v>
@@ -30159,7 +30159,7 @@
         <v>152.5867559728738</v>
       </c>
       <c r="H37" t="n">
-        <v>150.9847631111473</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I37" t="n">
         <v>135.4931377608283</v>
@@ -30186,13 +30186,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R37" t="n">
         <v>137.1599022512688</v>
       </c>
       <c r="S37" t="n">
-        <v>152.5867559728738</v>
+        <v>133.0699196067459</v>
       </c>
       <c r="T37" t="n">
         <v>152.5867559728738</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="E38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="F38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="G38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I38" t="n">
         <v>150.3178400209649</v>
@@ -30271,25 +30271,25 @@
         <v>55.88797492591272</v>
       </c>
       <c r="S38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30390,13 +30390,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>131.4390120583528</v>
       </c>
       <c r="G40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I40" t="n">
         <v>135.4931377608283</v>
@@ -30429,25 +30429,25 @@
         <v>137.1599022512688</v>
       </c>
       <c r="S40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W40" t="n">
-        <v>133.0699196067466</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="E41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="F41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="G41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I41" t="n">
         <v>150.3178400209649</v>
@@ -30508,25 +30508,25 @@
         <v>55.88797492591272</v>
       </c>
       <c r="S41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30627,13 +30627,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>131.4390120583519</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I43" t="n">
         <v>135.4931377608283</v>
@@ -30666,25 +30666,25 @@
         <v>137.1599022512688</v>
       </c>
       <c r="S43" t="n">
-        <v>152.5867559728739</v>
+        <v>133.0699196067457</v>
       </c>
       <c r="T43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="44">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5867559728738</v>
+        <v>133.0699196067463</v>
       </c>
       <c r="C46" t="n">
         <v>152.5867559728738</v>
@@ -30897,13 +30897,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R46" t="n">
         <v>137.1599022512688</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9847631111473</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T46" t="n">
         <v>152.5867559728738</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>118.4537969567199</v>
       </c>
       <c r="K11" t="n">
-        <v>311.1004426054802</v>
+        <v>120.5460601142438</v>
       </c>
       <c r="L11" t="n">
         <v>436.4223628785867</v>
@@ -35428,7 +35428,7 @@
         <v>307.9382672499269</v>
       </c>
       <c r="Q11" t="n">
-        <v>81.4673462160049</v>
+        <v>153.5679317505209</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M12" t="n">
-        <v>94.82069326434731</v>
+        <v>562.973957223978</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4044077482506</v>
+        <v>319.4139566618273</v>
       </c>
       <c r="O12" t="n">
         <v>464.7485518834702</v>
@@ -35507,7 +35507,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q12" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.62700578466119</v>
+        <v>46.62700578466121</v>
       </c>
       <c r="K13" t="n">
-        <v>151.0191897391236</v>
+        <v>151.0191897391237</v>
       </c>
       <c r="L13" t="n">
         <v>226.5511725703756</v>
@@ -35586,7 +35586,7 @@
         <v>181.8313544842262</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.0822888341504</v>
+        <v>71.08228883415042</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.4537969567199</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>120.5460601142438</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L14" t="n">
-        <v>436.4223628785867</v>
+        <v>364.3217773440703</v>
       </c>
       <c r="M14" t="n">
         <v>491.8157444113278</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L15" t="n">
         <v>432.1084713292371</v>
       </c>
       <c r="M15" t="n">
-        <v>562.973957223978</v>
+        <v>290.9835061375545</v>
       </c>
       <c r="N15" t="n">
         <v>591.4044077482506</v>
@@ -35744,7 +35744,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.46567458416479</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466131</v>
+        <v>46.62700578466121</v>
       </c>
       <c r="K16" t="n">
-        <v>151.0191897391238</v>
+        <v>151.0191897391237</v>
       </c>
       <c r="L16" t="n">
-        <v>226.5511725703757</v>
+        <v>226.5511725703756</v>
       </c>
       <c r="M16" t="n">
-        <v>246.0664065699381</v>
+        <v>246.066406569938</v>
       </c>
       <c r="N16" t="n">
-        <v>245.5987790526331</v>
+        <v>245.598779052633</v>
       </c>
       <c r="O16" t="n">
-        <v>222.6152580511275</v>
+        <v>222.6152580511274</v>
       </c>
       <c r="P16" t="n">
-        <v>181.8313544842263</v>
+        <v>181.8313544842262</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415052</v>
+        <v>71.08228883415042</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,13 +35890,13 @@
         <v>436.4223628785867</v>
       </c>
       <c r="M17" t="n">
-        <v>301.2613619200913</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N17" t="n">
         <v>478.2881520867284</v>
       </c>
       <c r="O17" t="n">
-        <v>398.8632430757227</v>
+        <v>208.3088605844863</v>
       </c>
       <c r="P17" t="n">
         <v>307.9382672499269</v>
@@ -35963,7 +35963,7 @@
         <v>88.09805462780565</v>
       </c>
       <c r="K18" t="n">
-        <v>278.3580710427827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>432.1084713292371</v>
@@ -35972,7 +35972,7 @@
         <v>562.973957223978</v>
       </c>
       <c r="N18" t="n">
-        <v>123.2511437886201</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O18" t="n">
         <v>464.7485518834702</v>
@@ -35981,7 +35981,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q18" t="n">
-        <v>196.1628128732074</v>
+        <v>6.367619956359024</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>118.4537969567199</v>
       </c>
       <c r="K20" t="n">
         <v>311.1004426054802</v>
@@ -36127,7 +36127,7 @@
         <v>436.4223628785867</v>
       </c>
       <c r="M20" t="n">
-        <v>491.8157444113278</v>
+        <v>454.8292936706128</v>
       </c>
       <c r="N20" t="n">
         <v>478.2881520867284</v>
@@ -36139,7 +36139,7 @@
         <v>307.9382672499269</v>
       </c>
       <c r="Q20" t="n">
-        <v>81.46734621600444</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>562.973957223978</v>
       </c>
       <c r="N21" t="n">
-        <v>319.4139566618273</v>
+        <v>123.2511437886201</v>
       </c>
       <c r="O21" t="n">
         <v>464.7485518834702</v>
@@ -36218,7 +36218,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>81.46734621600416</v>
       </c>
       <c r="K23" t="n">
         <v>311.1004426054802</v>
@@ -36376,7 +36376,7 @@
         <v>307.9382672499269</v>
       </c>
       <c r="Q23" t="n">
-        <v>81.46734621600444</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>278.3580710427827</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M24" t="n">
         <v>562.973957223978</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886192</v>
       </c>
       <c r="O24" t="n">
-        <v>428.7037592530756</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P24" t="n">
         <v>360.1944957546763</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.9529482126762</v>
+        <v>220.9529482126761</v>
       </c>
       <c r="K26" t="n">
-        <v>311.2490130156818</v>
+        <v>413.5995938614365</v>
       </c>
       <c r="L26" t="n">
-        <v>538.921514134543</v>
+        <v>538.9215141345429</v>
       </c>
       <c r="M26" t="n">
-        <v>594.3148956672841</v>
+        <v>594.314895667284</v>
       </c>
       <c r="N26" t="n">
-        <v>580.7873033426846</v>
+        <v>478.4367224969316</v>
       </c>
       <c r="O26" t="n">
         <v>501.362394331679</v>
       </c>
       <c r="P26" t="n">
-        <v>410.4374185058832</v>
+        <v>410.4374185058831</v>
       </c>
       <c r="Q26" t="n">
         <v>256.0670830064772</v>
       </c>
       <c r="R26" t="n">
-        <v>46.61117633004358</v>
+        <v>46.61117633004348</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K27" t="n">
         <v>278.3580710427827</v>
@@ -36683,16 +36683,16 @@
         <v>562.973957223978</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886194</v>
       </c>
       <c r="O27" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P27" t="n">
-        <v>176.3020992960581</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12902470206571</v>
+        <v>60.12902470206757</v>
       </c>
       <c r="K28" t="n">
-        <v>164.5212086565282</v>
+        <v>164.5212086565281</v>
       </c>
       <c r="L28" t="n">
-        <v>240.0531914877801</v>
+        <v>240.05319148778</v>
       </c>
       <c r="M28" t="n">
-        <v>259.5684254873424</v>
+        <v>259.5684254873423</v>
       </c>
       <c r="N28" t="n">
-        <v>259.1007979700375</v>
+        <v>259.1007979700374</v>
       </c>
       <c r="O28" t="n">
-        <v>236.1172769685319</v>
+        <v>236.1172769685318</v>
       </c>
       <c r="P28" t="n">
         <v>195.3333734016306</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.58430775155492</v>
+        <v>84.58430775155482</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>220.9529482126762</v>
       </c>
       <c r="K29" t="n">
-        <v>413.5995938614366</v>
+        <v>311.2490130156827</v>
       </c>
       <c r="L29" t="n">
         <v>538.921514134543</v>
@@ -36844,7 +36844,7 @@
         <v>580.7873033426846</v>
       </c>
       <c r="O29" t="n">
-        <v>399.011813485925</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P29" t="n">
         <v>410.4374185058832</v>
@@ -36853,7 +36853,7 @@
         <v>256.0670830064772</v>
       </c>
       <c r="R29" t="n">
-        <v>46.61117633004357</v>
+        <v>46.61117633004356</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12902470206569</v>
+        <v>60.12902470206568</v>
       </c>
       <c r="K31" t="n">
-        <v>164.5212086565282</v>
+        <v>164.5212086565281</v>
       </c>
       <c r="L31" t="n">
         <v>240.0531914877801</v>
@@ -37008,7 +37008,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.5843077515549</v>
+        <v>84.58430775155489</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>594.3148956672841</v>
       </c>
       <c r="N32" t="n">
-        <v>478.4367224969307</v>
+        <v>580.7873033426846</v>
       </c>
       <c r="O32" t="n">
         <v>501.362394331679</v>
@@ -37087,7 +37087,7 @@
         <v>410.4374185058832</v>
       </c>
       <c r="Q32" t="n">
-        <v>256.0670830064772</v>
+        <v>153.7165021607236</v>
       </c>
       <c r="R32" t="n">
         <v>46.61117633004356</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>278.3580710427827</v>
@@ -37157,7 +37157,7 @@
         <v>562.973957223978</v>
       </c>
       <c r="N33" t="n">
-        <v>123.2511437886194</v>
+        <v>211.349198416425</v>
       </c>
       <c r="O33" t="n">
         <v>464.7485518834702</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206651</v>
+        <v>60.12902470206568</v>
       </c>
       <c r="K34" t="n">
         <v>164.5212086565281</v>
@@ -37245,7 +37245,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.58430775155489</v>
+        <v>84.58430775155551</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>278.3580710427827</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>432.1084713292371</v>
@@ -37394,7 +37394,7 @@
         <v>562.973957223978</v>
       </c>
       <c r="N36" t="n">
-        <v>123.2511437886187</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O36" t="n">
         <v>464.7485518834702</v>
@@ -37403,7 +37403,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.1628128732074</v>
+        <v>94.46567458416386</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,10 +37552,10 @@
         <v>491.8157444113278</v>
       </c>
       <c r="N38" t="n">
-        <v>478.2881520867286</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O38" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757225</v>
       </c>
       <c r="P38" t="n">
         <v>307.9382672499269</v>
@@ -37625,16 +37625,16 @@
         <v>278.3580710427827</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M39" t="n">
-        <v>562.973957223978</v>
+        <v>559.5692451478161</v>
       </c>
       <c r="N39" t="n">
-        <v>555.3596151178558</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O39" t="n">
-        <v>464.7485518834702</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>360.1944957546763</v>
@@ -37798,7 +37798,7 @@
         <v>307.9382672499269</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.5679317505209</v>
+        <v>153.5679317505211</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>398.8632430757227</v>
       </c>
       <c r="P44" t="n">
-        <v>307.9382672499268</v>
+        <v>307.9382672499269</v>
       </c>
       <c r="Q44" t="n">
         <v>153.5679317505209</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K45" t="n">
-        <v>278.3580710427827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>432.1084713292371</v>
@@ -38108,10 +38108,10 @@
         <v>591.4044077482506</v>
       </c>
       <c r="O45" t="n">
-        <v>444.8878383063205</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>170.3993028378274</v>
       </c>
       <c r="Q45" t="n">
         <v>196.1628128732074</v>
